--- a/Dragonfall/gameData/shared/Activities.xlsx
+++ b/Dragonfall/gameData/shared/Activities.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="680" windowWidth="28640" windowHeight="18520" tabRatio="346"/>
+    <workbookView xWindow="3500" yWindow="680" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="day60" sheetId="24" r:id="rId1"/>
@@ -229,10 +229,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:crossbowman:350,basicInfo:marchQueue:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>soldiers:swordsman:400</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -474,6 +470,10 @@
   </si>
   <si>
     <t>resource:casinoTokenClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:crossbowman:350</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2207,7 +2207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A38" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A38" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -2240,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -2273,7 +2273,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -2281,7 +2281,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -2289,7 +2289,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -2305,7 +2305,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -2313,7 +2313,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -2321,7 +2321,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -2337,7 +2337,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -2345,7 +2345,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
@@ -2353,7 +2353,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
@@ -2361,7 +2361,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
@@ -2369,7 +2369,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
@@ -2393,7 +2393,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
@@ -2401,7 +2401,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
@@ -2409,7 +2409,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
@@ -2417,7 +2417,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
@@ -2433,7 +2433,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
@@ -2441,7 +2441,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
@@ -2449,7 +2449,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
@@ -2457,7 +2457,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
@@ -2473,7 +2473,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -2489,7 +2489,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
@@ -2505,7 +2505,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
@@ -2521,7 +2521,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
@@ -2585,7 +2585,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
@@ -2673,7 +2673,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1">
@@ -2681,7 +2681,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1">
@@ -2689,7 +2689,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20" customHeight="1">
@@ -2697,7 +2697,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20" customHeight="1">
@@ -2798,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -2809,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -2820,7 +2820,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -2831,7 +2831,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -2842,7 +2842,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -2853,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -2864,7 +2864,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -2875,7 +2875,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -2886,7 +2886,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -2897,7 +2897,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -2908,7 +2908,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -2919,7 +2919,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -2930,7 +2930,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -2941,7 +2941,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -2952,7 +2952,7 @@
         <v>70</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -2997,7 +2997,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3019,7 +3019,7 @@
         <v>110</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3030,7 +3030,7 @@
         <v>120</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3041,7 +3041,7 @@
         <v>130</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3052,7 +3052,7 @@
         <v>140</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3063,7 +3063,7 @@
         <v>150</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3074,7 +3074,7 @@
         <v>160</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -3161,8 +3161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3235,7 +3235,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3243,7 +3243,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3251,7 +3251,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3259,7 +3259,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3267,7 +3267,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -3275,7 +3275,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -3283,7 +3283,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3291,7 +3291,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20" customHeight="1">
@@ -3413,7 +3413,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3424,7 +3424,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3435,7 +3435,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3446,7 +3446,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3457,7 +3457,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3468,7 +3468,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3479,7 +3479,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3501,7 +3501,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3512,7 +3512,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/Activities.xlsx
+++ b/Dragonfall/gameData/shared/Activities.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="680" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="2"/>
@@ -193,10 +193,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:swordsman:50</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>special:retreatTroop:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -209,54 +205,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:ranger:100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:sentinel:150</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:swordsman:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:ranger:250</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:sentinel:300</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:swordsman:400</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:ranger:450</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:sentinel:500</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:crossbowman:550</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:lancer:300</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:horseArcher:350</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:catapult:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>special:chestKey_2:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -473,7 +421,59 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:crossbowman:350</t>
+    <t>soldiers:swordsman_1:50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ranger_1:100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:sentinel_1:150</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:swordsman_1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ranger_1:250</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:sentinel_1:300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:crossbowman_1:350</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:swordsman_1:400</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ranger_1:450</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:sentinel_1:500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:crossbowman_1:550</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:lancer_1:300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:horseArcher_1:350</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:catapult_1:200</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2240,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -2273,7 +2273,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -2281,7 +2281,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -2289,7 +2289,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -2305,7 +2305,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -2313,7 +2313,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -2321,7 +2321,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -2337,7 +2337,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -2345,7 +2345,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
@@ -2353,7 +2353,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
@@ -2361,7 +2361,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
@@ -2369,7 +2369,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
@@ -2393,7 +2393,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
@@ -2401,7 +2401,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
@@ -2409,7 +2409,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
@@ -2417,7 +2417,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
@@ -2425,7 +2425,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
@@ -2433,7 +2433,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
@@ -2441,7 +2441,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
@@ -2449,7 +2449,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
@@ -2457,7 +2457,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
@@ -2473,7 +2473,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -2489,7 +2489,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
@@ -2505,7 +2505,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
@@ -2521,7 +2521,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
@@ -2585,7 +2585,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
@@ -2673,7 +2673,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1">
@@ -2681,7 +2681,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1">
@@ -2689,7 +2689,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20" customHeight="1">
@@ -2697,7 +2697,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20" customHeight="1">
@@ -2798,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -2809,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -2820,7 +2820,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -2831,7 +2831,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -2842,7 +2842,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -2853,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -2864,7 +2864,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -2875,7 +2875,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -2886,7 +2886,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -2897,7 +2897,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -2908,7 +2908,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -2919,7 +2919,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -2930,7 +2930,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -2941,7 +2941,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -2952,7 +2952,7 @@
         <v>70</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -2974,7 +2974,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -2997,7 +2997,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3019,7 +3019,7 @@
         <v>110</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3030,7 +3030,7 @@
         <v>120</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3041,7 +3041,7 @@
         <v>130</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3052,7 +3052,7 @@
         <v>140</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3063,7 +3063,7 @@
         <v>150</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3074,7 +3074,7 @@
         <v>160</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -3162,7 +3162,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3187,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3195,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3203,7 +3203,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3211,7 +3211,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3219,7 +3219,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3227,7 +3227,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3235,7 +3235,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3243,7 +3243,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3251,7 +3251,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3259,7 +3259,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3267,7 +3267,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -3275,7 +3275,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -3283,7 +3283,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3291,7 +3291,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20" customHeight="1">
@@ -3413,7 +3413,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3424,7 +3424,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3435,7 +3435,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3446,7 +3446,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3457,7 +3457,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3468,7 +3468,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3479,7 +3479,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3490,7 +3490,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3501,7 +3501,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3512,7 +3512,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/Activities.xlsx
+++ b/Dragonfall/gameData/shared/Activities.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="680" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="2"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="day60" sheetId="24" r:id="rId1"/>
@@ -421,59 +421,59 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:swordsman_1:50</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:ranger_1:100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:sentinel_1:150</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:swordsman_1:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:ranger_1:250</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:sentinel_1:300</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:crossbowman_1:350</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:swordsman_1:400</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:ranger_1:450</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:sentinel_1:500</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:crossbowman_1:550</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:lancer_1:300</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:horseArcher_1:350</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:catapult_1:200</t>
+    <t>soldiers:catapult_1:1:40</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:lancer_1:1:80</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:sentinel_1:1:120</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:crossbowman_1:1:160</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:horseArcher_1:1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ballista_1:1:250</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:swordsman_2:1:150</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ranger_2:1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:lancer_2:1:150</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:catapult_2:1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:skeletonWarrior:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:deathKnight:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:meatWagon:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:skeletonArcher:200</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +582,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -623,8 +623,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="552">
+  <cellStyleXfs count="596">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1181,8 +1194,52 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1205,8 +1262,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="552">
+  <cellStyles count="596">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1485,6 +1545,28 @@
     <cellStyle name="超链接" xfId="546" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="548" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="562" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="564" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="574" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="576" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="578" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="580" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="582" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="584" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="586" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="588" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="590" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="592" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="594" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1756,6 +1838,28 @@
     <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3162,7 +3266,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3170,7 +3274,8 @@
     <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="20.6640625" style="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
@@ -3210,7 +3315,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3218,7 +3323,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3226,7 +3331,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3234,7 +3339,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3242,7 +3347,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3250,7 +3355,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3258,7 +3363,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3266,7 +3371,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3274,24 +3379,24 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>106</v>
+      <c r="B13" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>107</v>
+      <c r="B14" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>108</v>
+      <c r="B15" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/Activities.xlsx
+++ b/Dragonfall/gameData/shared/Activities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="2"/>
+    <workbookView xWindow="2300" yWindow="220" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="day60" sheetId="24" r:id="rId1"/>
@@ -421,42 +421,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:catapult_1:1:40</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:lancer_1:1:80</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:sentinel_1:1:120</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:crossbowman_1:1:160</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>soldiers:horseArcher_1:1:200</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:ballista_1:1:250</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:swordsman_2:1:150</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>soldiers:ranger_2:1:200</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:lancer_2:1:150</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>soldiers:catapult_2:1:200</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -474,6 +446,34 @@
   </si>
   <si>
     <t>soldiers:skeletonArcher:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:sentinel_1:1:300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:crossbowman_1:1:300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ballista_1:1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:swordsman_2:1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:lancer_2:1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:catapult_1:1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:lancer_1:1:200</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3266,13 +3266,13 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="20.6640625" style="1"/>
@@ -3292,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3300,7 +3300,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3308,7 +3308,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3316,7 +3316,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3324,7 +3324,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3332,7 +3332,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3340,7 +3340,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3348,7 +3348,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3356,7 +3356,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3364,7 +3364,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3372,7 +3372,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -3380,7 +3380,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -3388,7 +3388,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3396,7 +3396,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/Activities.xlsx
+++ b/Dragonfall/gameData/shared/Activities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="220" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="2"/>
+    <workbookView xWindow="2300" yWindow="220" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="day60" sheetId="24" r:id="rId1"/>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>special:heroBlood_1:1,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>special:vipActive_3:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -209,38 +205,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>special:dragonChest_1:1,resource:gemClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_2:10,resource:gemClass_1:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:stamina_1:2,resource:gemClass_1:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_3:10,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:warSpeedupClass_2:2,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:casinoTokenClass_1:2,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:vipActive_3:1,resource:gemClass_1:8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:casinoTokenClass_2:1,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>speedup:speedup_4:10,resource:gemClass_2:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -421,18 +385,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:horseArcher_1:1:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:ranger_2:1:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:catapult_2:1:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>soldiers:skeletonWarrior:200</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -449,31 +401,79 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:sentinel_1:1:300</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:crossbowman_1:1:300</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:ballista_1:1:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:swordsman_2:1:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:lancer_2:1:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:catapult_1:1:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldiers:lancer_1:1:200</t>
+    <t>soldiers:catapult_1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:lancer_1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:sentinel_1:300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:crossbowman_1:300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:horseArcher_1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ballista_1:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:swordsman_2:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:ranger_2:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:lancer_2:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:catapult_2:200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:dragonChest_1:1,resource:gemClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_2:10,resource:gemClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:stamina_1:2,resource:gemClass_1:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:vipActive_3:1,resource:gemClass_1:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:casinoTokenClass_1:2,resource:gemClass_1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:warSpeedupClass_2:2,resource:gemClass_1:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedup:speedup_3:10,resource:gemClass_1:7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>special:heroBlood_1:1,resource:gemClass_1:8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:casinoTokenClass_2:1,resource:gemClass_1:9</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +637,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="596">
+  <cellStyleXfs count="598">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -652,6 +652,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1266,7 +1268,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="596">
+  <cellStyles count="598">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1567,6 +1569,7 @@
     <cellStyle name="超链接" xfId="590" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="592" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="594" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="596" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1860,6 +1863,7 @@
     <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2311,7 +2315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A38" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A31" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -2344,7 +2348,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -2377,7 +2381,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -2385,7 +2389,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -2393,7 +2397,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -2409,7 +2413,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -2417,7 +2421,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -2425,7 +2429,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -2441,7 +2445,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -2449,7 +2453,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
@@ -2457,7 +2461,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
@@ -2465,7 +2469,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
@@ -2473,7 +2477,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
@@ -2497,7 +2501,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
@@ -2505,7 +2509,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
@@ -2513,7 +2517,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
@@ -2521,7 +2525,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
@@ -2529,7 +2533,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
@@ -2537,7 +2541,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
@@ -2545,7 +2549,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
@@ -2553,7 +2557,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
@@ -2561,7 +2565,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
@@ -2577,7 +2581,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -2593,7 +2597,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
@@ -2609,7 +2613,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
@@ -2625,7 +2629,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
@@ -2689,7 +2693,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
@@ -2777,7 +2781,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1">
@@ -2785,7 +2789,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1">
@@ -2793,7 +2797,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20" customHeight="1">
@@ -2801,7 +2805,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20" customHeight="1">
@@ -2870,7 +2874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2902,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -2913,7 +2917,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -2924,7 +2928,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -2935,7 +2939,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -2946,7 +2950,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -2957,7 +2961,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -2968,7 +2972,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -2979,7 +2983,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -2990,7 +2994,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3001,7 +3005,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3012,7 +3016,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -3023,7 +3027,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -3034,7 +3038,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3045,7 +3049,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -3056,7 +3060,7 @@
         <v>70</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3101,7 +3105,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3123,7 +3127,7 @@
         <v>110</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3134,7 +3138,7 @@
         <v>120</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3145,7 +3149,7 @@
         <v>130</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3156,7 +3160,7 @@
         <v>140</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3167,7 +3171,7 @@
         <v>150</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3178,7 +3182,7 @@
         <v>160</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -3265,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B7"/>
+    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3292,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3300,7 +3304,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3308,7 +3312,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3316,7 +3320,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3324,7 +3328,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3332,7 +3336,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3340,7 +3344,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3348,7 +3352,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3356,7 +3360,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3364,7 +3368,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3372,7 +3376,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -3380,7 +3384,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -3388,7 +3392,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3396,7 +3400,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20" customHeight="1">
@@ -3484,8 +3488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3518,7 +3522,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3529,7 +3533,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3540,7 +3544,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3551,7 +3555,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3562,7 +3566,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3573,7 +3577,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3584,7 +3588,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3595,7 +3599,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3606,7 +3610,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3617,7 +3621,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/Activities.xlsx
+++ b/Dragonfall/gameData/shared/Activities.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="220" windowWidth="28640" windowHeight="18520" tabRatio="346" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="346"/>
   </bookViews>
   <sheets>
     <sheet name="day60" sheetId="24" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
   <si>
     <t>INT_day</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -73,318 +73,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>speedup:warSpeedupClass_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:dragonChest_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:stamina_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:dragonChest_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:warSpeedupClass_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:ironBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:foodBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:coinBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:movingConstruction:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:infantryAtkBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:archerAtkBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:cavalryAtkBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:siegeAtkBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:unitHpBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:stoneBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chestKey_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chestKey_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:retreatTroop:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:vipActive_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chestKey_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_4:10,resource:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_3:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_2:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_2:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_2:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_2:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_2:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_1:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_1:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_1:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_1:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_1:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:sweepScroll:10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:sweepScroll:10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:dragonHp_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:stamina_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:sweepScroll:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:gemClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:stamina_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:dragonChest_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_4:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_4:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:woodClass_4:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_4:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:stamina_2:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:ironClass_4:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:foodClass_4:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:coinClass_4:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:warSpeedupClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:chest_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff:woodBonus_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:stoneClass_3:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:casinoTokenClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>soldiers:skeletonWarrior:200</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -441,39 +129,359 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>special:dragonChest_1:1,resource:gemClass_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_2:10,resource:gemClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:stamina_1:2,resource:gemClass_1:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:vipActive_3:1,resource:gemClass_1:4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:casinoTokenClass_1:2,resource:gemClass_1:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:warSpeedupClass_2:2,resource:gemClass_1:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedup:speedup_3:10,resource:gemClass_1:7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>special:heroBlood_1:1,resource:gemClass_1:8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource:casinoTokenClass_2:1,resource:gemClass_1:9</t>
+    <t>items:speedup_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:siegeAtkBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:unitHpBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_4:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodClass_4:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_4:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:sweepScroll:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_1:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodClass_1:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_1:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stamina_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chestKey_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_2:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stoneClass_2:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_2:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodClass_2:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:sweepScroll:10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonHp_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_2:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chestKey_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:retreatTroop:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:warSpeedupClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:sweepScroll:10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chestKey_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stoneClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_1:1,items:gemClass_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_2:10,items:gemClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stamina_1:2,items:gemClass_1:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:vipActive_3:1,items:gemClass_1:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_1:2,items:gemClass_1:5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:warSpeedupClass_2:2,items:gemClass_1:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_3:10,items:gemClass_1:7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:heroBlood_1:1,items:gemClass_1:8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_2:1,items:gemClass_1:9</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_4:10,items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_1:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stoneClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stamina_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:movingConstruction:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stoneClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stamina_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_4:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_4:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_4:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stoneClass_4:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stamina_2:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:vipActive_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_4:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:coinClass_4:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:warSpeedupClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_3:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:infantryAtkBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stoneBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:archerAtkBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:chest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:cavalryAtkBonus_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_2:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2315,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A31" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2340,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -2348,7 +2356,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -2357,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -2365,7 +2373,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -2373,7 +2381,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -2381,7 +2389,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -2389,7 +2397,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -2397,7 +2405,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -2405,7 +2413,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -2413,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -2421,7 +2429,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -2429,7 +2437,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -2437,7 +2445,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -2445,7 +2453,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -2453,7 +2461,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
@@ -2461,7 +2469,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
@@ -2469,7 +2477,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
@@ -2477,7 +2485,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
@@ -2485,7 +2493,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
@@ -2493,7 +2501,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
@@ -2501,7 +2509,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
@@ -2509,7 +2517,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
@@ -2517,7 +2525,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
@@ -2525,7 +2533,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
@@ -2533,7 +2541,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
@@ -2541,7 +2549,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
@@ -2549,7 +2557,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
@@ -2557,7 +2565,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
@@ -2565,7 +2573,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
@@ -2573,7 +2581,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20" customHeight="1">
@@ -2581,7 +2589,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -2589,7 +2597,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" customHeight="1">
@@ -2597,7 +2605,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
@@ -2605,7 +2613,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" customHeight="1">
@@ -2613,7 +2621,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
@@ -2621,7 +2629,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20" customHeight="1">
@@ -2629,7 +2637,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
@@ -2637,7 +2645,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20" customHeight="1">
@@ -2645,7 +2653,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1">
@@ -2653,7 +2661,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20" customHeight="1">
@@ -2661,7 +2669,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20" customHeight="1">
@@ -2669,7 +2677,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20" customHeight="1">
@@ -2677,7 +2685,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20" customHeight="1">
@@ -2685,7 +2693,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20" customHeight="1">
@@ -2693,7 +2701,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
@@ -2701,7 +2709,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20" customHeight="1">
@@ -2709,7 +2717,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20" customHeight="1">
@@ -2717,7 +2725,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20" customHeight="1">
@@ -2725,7 +2733,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20" customHeight="1">
@@ -2733,7 +2741,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20" customHeight="1">
@@ -2741,7 +2749,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20" customHeight="1">
@@ -2749,7 +2757,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20" customHeight="1">
@@ -2757,7 +2765,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20" customHeight="1">
@@ -2765,7 +2773,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20" customHeight="1">
@@ -2773,7 +2781,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20" customHeight="1">
@@ -2781,7 +2789,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1">
@@ -2789,7 +2797,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1">
@@ -2797,7 +2805,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20" customHeight="1">
@@ -2805,7 +2813,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20" customHeight="1">
@@ -2813,7 +2821,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="20" customHeight="1">
@@ -2875,7 +2883,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2906,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -2917,7 +2925,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -2928,7 +2936,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -2939,7 +2947,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -2950,7 +2958,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -2961,7 +2969,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -2972,7 +2980,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -2983,7 +2991,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -2994,7 +3002,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3005,7 +3013,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3016,7 +3024,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -3027,7 +3035,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -3038,7 +3046,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3049,7 +3057,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -3060,7 +3068,7 @@
         <v>70</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3071,7 +3079,7 @@
         <v>75</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3082,7 +3090,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3093,7 +3101,7 @@
         <v>85</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -3105,7 +3113,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3116,7 +3124,7 @@
         <v>100</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3127,7 +3135,7 @@
         <v>110</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3138,7 +3146,7 @@
         <v>120</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3149,7 +3157,7 @@
         <v>130</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3160,7 +3168,7 @@
         <v>140</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3171,7 +3179,7 @@
         <v>150</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3182,7 +3190,7 @@
         <v>160</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -3270,7 +3278,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3296,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3304,7 +3312,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3312,7 +3320,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3320,7 +3328,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3328,7 +3336,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3336,7 +3344,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3344,7 +3352,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3352,7 +3360,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3360,7 +3368,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3368,7 +3376,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3376,7 +3384,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -3384,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -3392,7 +3400,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3400,7 +3408,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20" customHeight="1">
@@ -3488,8 +3496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showRuler="0" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3522,7 +3530,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3533,7 +3541,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3544,7 +3552,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3555,7 +3563,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3566,7 +3574,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3577,7 +3585,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3588,7 +3596,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3599,7 +3607,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3610,7 +3618,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3621,7 +3629,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">

--- a/Dragonfall/gameData/shared/Activities.xlsx
+++ b/Dragonfall/gameData/shared/Activities.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="346"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="346" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="day60" sheetId="24" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
   <si>
     <t>INT_day</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldiers:lancer_1:200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>soldiers:sentinel_1:300</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -285,34 +281,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:dragonChest_1:1,items:gemClass_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:speedup_2:10,items:gemClass_1:2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:stamina_1:2,items:gemClass_1:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>items:vipActive_3:1,items:gemClass_1:4</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:casinoTokenClass_1:2,items:gemClass_1:5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:warSpeedupClass_2:2,items:gemClass_1:6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>items:speedup_3:10,items:gemClass_1:7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>items:heroBlood_1:1,items:gemClass_1:8</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -321,10 +293,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>items:speedup_4:10,items:gemClass_2:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>items:speedup_1:6</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -482,6 +450,54 @@
   </si>
   <si>
     <t>items:dragonChest_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:dragonChest_1:1,items:gemClass_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_3:2,items:stoneClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_3:2,items:foodClass_3:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:casinoTokenClass_1:2,items:gemClass_1:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:speedup_1:10,items:speedup_2:10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:sweepScroll:10,items:stamina_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:masterOfDefender_1:4,items:gemClass_2:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers:lancer_1:250</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:foodClass_2:2,items:speedup_1:2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:ironClass_2:4,items:speedup_1:4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_2:6,items:speedup_1:6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:stoneClass_2:8,items:speedup_1:8</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +661,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="598">
+  <cellStyleXfs count="640">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -660,6 +676,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1276,7 +1334,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="598">
+  <cellStyles count="640">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1578,6 +1636,27 @@
     <cellStyle name="超链接" xfId="592" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="594" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="596" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="598" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="600" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="602" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="604" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="606" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="608" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="610" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="612" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="614" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="616" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="618" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="620" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="622" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="624" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="626" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="628" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="630" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="632" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="634" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="636" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="638" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1872,6 +1951,27 @@
     <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2323,8 +2423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView showRuler="0" topLeftCell="A15" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2348,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -2356,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4"/>
     </row>
@@ -2365,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -2373,7 +2473,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -2381,7 +2481,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -2389,7 +2489,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -2397,7 +2497,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -2405,7 +2505,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -2413,7 +2513,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -2421,7 +2521,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -2429,7 +2529,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -2437,7 +2537,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -2445,7 +2545,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -2453,7 +2553,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -2461,7 +2561,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
@@ -2469,7 +2569,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
@@ -2477,7 +2577,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
@@ -2485,7 +2585,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
@@ -2493,7 +2593,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
@@ -2501,7 +2601,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
@@ -2509,7 +2609,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
@@ -2517,7 +2617,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
@@ -2525,7 +2625,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
@@ -2533,7 +2633,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
@@ -2541,7 +2641,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
@@ -2549,7 +2649,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
@@ -2557,7 +2657,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
@@ -2565,7 +2665,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
@@ -2573,7 +2673,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
@@ -2581,7 +2681,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20" customHeight="1">
@@ -2589,7 +2689,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -2597,7 +2697,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" customHeight="1">
@@ -2605,7 +2705,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
@@ -2613,7 +2713,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" customHeight="1">
@@ -2621,7 +2721,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
@@ -2629,7 +2729,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20" customHeight="1">
@@ -2637,7 +2737,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
@@ -2645,7 +2745,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20" customHeight="1">
@@ -2653,7 +2753,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1">
@@ -2661,7 +2761,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20" customHeight="1">
@@ -2669,7 +2769,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20" customHeight="1">
@@ -2677,7 +2777,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20" customHeight="1">
@@ -2685,7 +2785,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20" customHeight="1">
@@ -2693,7 +2793,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20" customHeight="1">
@@ -2701,7 +2801,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
@@ -2709,7 +2809,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20" customHeight="1">
@@ -2717,7 +2817,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20" customHeight="1">
@@ -2725,7 +2825,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20" customHeight="1">
@@ -2733,7 +2833,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20" customHeight="1">
@@ -2741,7 +2841,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20" customHeight="1">
@@ -2749,7 +2849,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20" customHeight="1">
@@ -2757,7 +2857,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20" customHeight="1">
@@ -2765,7 +2865,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20" customHeight="1">
@@ -2773,7 +2873,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20" customHeight="1">
@@ -2781,7 +2881,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20" customHeight="1">
@@ -2789,7 +2889,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1">
@@ -2797,7 +2897,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1">
@@ -2805,7 +2905,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20" customHeight="1">
@@ -2813,7 +2913,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20" customHeight="1">
@@ -2821,7 +2921,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="20" customHeight="1">
@@ -2882,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showRuler="0" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2914,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -2925,7 +3025,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -2936,7 +3036,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -2947,7 +3047,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -2958,7 +3058,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -2969,7 +3069,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -2980,7 +3080,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -2991,7 +3091,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3002,7 +3102,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3013,7 +3113,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3024,7 +3124,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -3035,7 +3135,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -3046,7 +3146,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3057,7 +3157,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -3068,7 +3168,7 @@
         <v>70</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -3079,7 +3179,7 @@
         <v>75</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -3090,7 +3190,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -3101,7 +3201,7 @@
         <v>85</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -3113,7 +3213,7 @@
         <v>90</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -3124,7 +3224,7 @@
         <v>100</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -3135,7 +3235,7 @@
         <v>110</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -3146,7 +3246,7 @@
         <v>120</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -3157,7 +3257,7 @@
         <v>130</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -3168,7 +3268,7 @@
         <v>140</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -3179,7 +3279,7 @@
         <v>150</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -3190,7 +3290,7 @@
         <v>160</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -3278,7 +3378,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3312,7 +3412,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3320,7 +3420,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3328,7 +3428,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3336,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3344,7 +3444,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3352,7 +3452,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3360,7 +3460,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3368,7 +3468,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3376,7 +3476,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3496,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3505,7 +3605,7 @@
     <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="64.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="31" style="1" customWidth="1"/>
     <col min="6" max="16384" width="20.6640625" style="1"/>
   </cols>
@@ -3527,10 +3627,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -3538,10 +3638,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -3549,10 +3649,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>63</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -3560,10 +3660,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -3571,10 +3671,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -3582,10 +3682,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -3593,10 +3693,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -3604,10 +3704,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -3615,10 +3715,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>69</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3626,23 +3726,55 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
         <v>15</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
-      <c r="C15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="C16" s="5"/>
